--- a/Gantt-Diagramm-ski.xlsx
+++ b/Gantt-Diagramm-ski.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8432A5C6-0557-44B0-A205-C2CA0C270CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDCC219-6A74-4CC6-BFFF-371659250037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1113,7 +1113,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1497,6 +1497,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="8" applyFill="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1506,17 +1516,14 @@
     <xf numFmtId="165" fontId="35" fillId="6" borderId="21" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="8" applyFill="1" applyBorder="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Datum" xfId="9" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
@@ -2802,18 +2809,18 @@
       <c r="K5" s="35"/>
       <c r="L5" s="35"/>
       <c r="M5" s="36"/>
-      <c r="O5" s="153" t="s">
+      <c r="O5" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="154">
+      <c r="P5" s="159"/>
+      <c r="Q5" s="159"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="159"/>
+      <c r="U5" s="160">
         <v>13</v>
       </c>
-      <c r="V5" s="154"/>
+      <c r="V5" s="160"/>
     </row>
     <row r="6" spans="1:63" ht="30" customHeight="1">
       <c r="A6" s="10"/>
@@ -9648,8 +9655,8 @@
   </sheetPr>
   <dimension ref="A1:XFD46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1"/>
@@ -9821,21 +9828,20 @@
         <v>45614</v>
       </c>
       <c r="E5" s="59"/>
-      <c r="H5" s="156"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="157"/>
-      <c r="L5" s="157"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="154"/>
-      <c r="V5" s="154"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="153"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="162"/>
+      <c r="R5" s="162"/>
+      <c r="S5" s="162"/>
+      <c r="T5" s="162"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="163"/>
     </row>
     <row r="6" spans="1:77 16384:16384" ht="30" customHeight="1">
       <c r="A6" s="10"/>
@@ -9849,176 +9855,169 @@
         <f>Meilenstein_Markierung</f>
         <v>1</v>
       </c>
-      <c r="H6" s="161" t="str">
+      <c r="H6" s="157" t="str">
         <f>TEXT(H7,"MMMM")</f>
         <v>Montag 18.11.2024</v>
       </c>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
-      <c r="K6" s="159"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="160"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="27" t="str">
-        <f>IF(TEXT(O7,"MMMM")=H6,"",TEXT(O7,"MMMM"))</f>
-        <v>Januar</v>
-      </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27" t="str">
-        <f>IF(OR(TEXT(V7,"MMMM")=O6,TEXT(V7,"MMMM")=H6),"",TEXT(V7,"MMMM"))</f>
-        <v/>
-      </c>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27" t="str">
-        <f>IF(OR(TEXT(AC7,"MMMM")=V6,TEXT(AC7,"MMMM")=O6,TEXT(AC7,"MMMM")=H6),"",TEXT(AC7,"MMMM"))</f>
-        <v/>
-      </c>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="70" t="str">
-        <f>IF(OR(TEXT(AJ7,"MMMM")=AC6,TEXT(AJ7,"MMMM")=V6,TEXT(AJ7,"MMMM")=O6,TEXT(AJ7,"MMMM")=H6),"",TEXT(AJ7,"MMMM"))</f>
-        <v/>
-      </c>
-      <c r="AK6" s="70"/>
-      <c r="AL6" s="70"/>
-      <c r="AM6" s="70"/>
-      <c r="AN6" s="70"/>
-      <c r="AO6" s="27"/>
-      <c r="AP6" s="27"/>
-      <c r="AQ6" s="27" t="str">
-        <f>IF(OR(TEXT(AQ7,"MMMM")=AJ6,TEXT(AQ7,"MMMM")=AC6,TEXT(AQ7,"MMMM")=V6,TEXT(AQ7,"MMMM")=O6),"",TEXT(AQ7,"MMMM"))</f>
-        <v/>
-      </c>
-      <c r="AR6" s="27"/>
-      <c r="AS6" s="27"/>
-      <c r="AT6" s="27"/>
-      <c r="AU6" s="27"/>
-      <c r="AV6" s="27"/>
-      <c r="AW6" s="27"/>
-      <c r="AX6" s="27" t="str">
-        <f>IF(OR(TEXT(AX7,"MMMM")=AQ6,TEXT(AX7,"MMMM")=AJ6,TEXT(AX7,"MMMM")=AC6,TEXT(AX7,"MMMM")=V6),"",TEXT(AX7,"MMMM"))</f>
-        <v>Januar</v>
-      </c>
-      <c r="AY6" s="27"/>
-      <c r="AZ6" s="27"/>
-      <c r="BA6" s="27"/>
-      <c r="BB6" s="27"/>
-      <c r="BC6" s="27"/>
-      <c r="BD6" s="27"/>
-      <c r="BE6" s="27" t="str">
-        <f>IF(OR(TEXT(BE7,"MMMM")=AX6,TEXT(BE7,"MMMM")=AQ6,TEXT(BE7,"MMMM")=AJ6,TEXT(BE7,"MMMM")=AC6),"",TEXT(BE7,"MMMM"))</f>
-        <v/>
-      </c>
-      <c r="BF6" s="27"/>
-      <c r="BG6" s="27"/>
-      <c r="BH6" s="27"/>
-      <c r="BI6" s="27"/>
-      <c r="BJ6" s="27"/>
-      <c r="BK6" s="27"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
+      <c r="S6" s="156"/>
+      <c r="T6" s="156"/>
+      <c r="U6" s="156"/>
+      <c r="V6" s="156"/>
+      <c r="W6" s="156"/>
+      <c r="X6" s="156"/>
+      <c r="Y6" s="156"/>
+      <c r="Z6" s="156"/>
+      <c r="AA6" s="156"/>
+      <c r="AB6" s="156"/>
+      <c r="AC6" s="156"/>
+      <c r="AD6" s="156"/>
+      <c r="AE6" s="156"/>
+      <c r="AF6" s="156"/>
+      <c r="AG6" s="156"/>
+      <c r="AH6" s="156"/>
+      <c r="AI6" s="156"/>
+      <c r="AJ6" s="155"/>
+      <c r="AK6" s="155"/>
+      <c r="AL6" s="155"/>
+      <c r="AM6" s="155"/>
+      <c r="AN6" s="155"/>
+      <c r="AO6" s="156"/>
+      <c r="AP6" s="156"/>
+      <c r="AQ6" s="156"/>
+      <c r="AR6" s="156"/>
+      <c r="AS6" s="156"/>
+      <c r="AT6" s="156"/>
+      <c r="AU6" s="156"/>
+      <c r="AV6" s="156"/>
+      <c r="AW6" s="156"/>
+      <c r="AX6" s="156"/>
+      <c r="AY6" s="156"/>
+      <c r="AZ6" s="156"/>
+      <c r="BA6" s="156"/>
+      <c r="BB6" s="156"/>
+      <c r="BC6" s="156"/>
+      <c r="BD6" s="156"/>
+      <c r="BE6" s="156"/>
+      <c r="BF6" s="156"/>
+      <c r="BG6" s="156"/>
+      <c r="BH6" s="156"/>
+      <c r="BI6" s="156"/>
+      <c r="BJ6" s="156"/>
+      <c r="BK6" s="156"/>
+      <c r="BL6" s="164"/>
+      <c r="BM6" s="164"/>
+      <c r="BN6" s="164"/>
+      <c r="BO6" s="164"/>
+      <c r="BP6" s="164"/>
+      <c r="BQ6" s="164"/>
+      <c r="BR6" s="164"/>
+      <c r="BS6" s="164"/>
+      <c r="BT6" s="164"/>
+      <c r="BU6" s="164"/>
+      <c r="BV6" s="164"/>
+      <c r="BW6" s="164"/>
+      <c r="BX6" s="164"/>
+      <c r="BY6" s="165"/>
     </row>
     <row r="7" spans="1:77 16384:16384" ht="39" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="23"/>
-      <c r="H7" s="155" t="s">
+      <c r="H7" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="155"/>
-      <c r="M7" s="155"/>
-      <c r="N7" s="155"/>
-      <c r="O7" s="155"/>
-      <c r="P7" s="155"/>
-      <c r="Q7" s="155"/>
-      <c r="R7" s="155" t="s">
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="161"/>
+      <c r="M7" s="161"/>
+      <c r="N7" s="161"/>
+      <c r="O7" s="161"/>
+      <c r="P7" s="161"/>
+      <c r="Q7" s="161"/>
+      <c r="R7" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="155"/>
-      <c r="T7" s="155"/>
-      <c r="U7" s="155"/>
-      <c r="V7" s="155"/>
-      <c r="W7" s="155"/>
-      <c r="X7" s="155"/>
-      <c r="Y7" s="155"/>
-      <c r="Z7" s="155"/>
-      <c r="AA7" s="155"/>
-      <c r="AB7" s="155" t="s">
+      <c r="S7" s="161"/>
+      <c r="T7" s="161"/>
+      <c r="U7" s="161"/>
+      <c r="V7" s="161"/>
+      <c r="W7" s="161"/>
+      <c r="X7" s="161"/>
+      <c r="Y7" s="161"/>
+      <c r="Z7" s="161"/>
+      <c r="AA7" s="161"/>
+      <c r="AB7" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="AC7" s="155"/>
-      <c r="AD7" s="155"/>
-      <c r="AE7" s="155"/>
-      <c r="AF7" s="155"/>
-      <c r="AG7" s="155"/>
-      <c r="AH7" s="155"/>
-      <c r="AI7" s="155"/>
-      <c r="AJ7" s="155"/>
-      <c r="AK7" s="155"/>
-      <c r="AL7" s="155" t="s">
+      <c r="AC7" s="161"/>
+      <c r="AD7" s="161"/>
+      <c r="AE7" s="161"/>
+      <c r="AF7" s="161"/>
+      <c r="AG7" s="161"/>
+      <c r="AH7" s="161"/>
+      <c r="AI7" s="161"/>
+      <c r="AJ7" s="161"/>
+      <c r="AK7" s="161"/>
+      <c r="AL7" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="AM7" s="155"/>
-      <c r="AN7" s="155"/>
-      <c r="AO7" s="155"/>
-      <c r="AP7" s="155"/>
-      <c r="AQ7" s="155"/>
-      <c r="AR7" s="155"/>
-      <c r="AS7" s="155"/>
-      <c r="AT7" s="155"/>
-      <c r="AU7" s="155"/>
-      <c r="AV7" s="155" t="s">
+      <c r="AM7" s="161"/>
+      <c r="AN7" s="161"/>
+      <c r="AO7" s="161"/>
+      <c r="AP7" s="161"/>
+      <c r="AQ7" s="161"/>
+      <c r="AR7" s="161"/>
+      <c r="AS7" s="161"/>
+      <c r="AT7" s="161"/>
+      <c r="AU7" s="161"/>
+      <c r="AV7" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="AW7" s="155"/>
-      <c r="AX7" s="155"/>
-      <c r="AY7" s="155"/>
-      <c r="AZ7" s="155"/>
-      <c r="BA7" s="155"/>
-      <c r="BB7" s="155"/>
-      <c r="BC7" s="155"/>
-      <c r="BD7" s="155"/>
-      <c r="BE7" s="155"/>
-      <c r="BF7" s="155" t="s">
+      <c r="AW7" s="161"/>
+      <c r="AX7" s="161"/>
+      <c r="AY7" s="161"/>
+      <c r="AZ7" s="161"/>
+      <c r="BA7" s="161"/>
+      <c r="BB7" s="161"/>
+      <c r="BC7" s="161"/>
+      <c r="BD7" s="161"/>
+      <c r="BE7" s="161"/>
+      <c r="BF7" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="BG7" s="155"/>
-      <c r="BH7" s="155"/>
-      <c r="BI7" s="155"/>
-      <c r="BJ7" s="155"/>
-      <c r="BK7" s="155"/>
-      <c r="BL7" s="155"/>
-      <c r="BM7" s="155"/>
-      <c r="BN7" s="155"/>
-      <c r="BO7" s="155"/>
-      <c r="BP7" s="155" t="s">
+      <c r="BG7" s="161"/>
+      <c r="BH7" s="161"/>
+      <c r="BI7" s="161"/>
+      <c r="BJ7" s="161"/>
+      <c r="BK7" s="161"/>
+      <c r="BL7" s="161"/>
+      <c r="BM7" s="161"/>
+      <c r="BN7" s="161"/>
+      <c r="BO7" s="161"/>
+      <c r="BP7" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="BQ7" s="155"/>
-      <c r="BR7" s="155"/>
-      <c r="BS7" s="155"/>
-      <c r="BT7" s="155"/>
-      <c r="BU7" s="155"/>
-      <c r="BV7" s="155"/>
-      <c r="BW7" s="155"/>
-      <c r="BX7" s="155"/>
-      <c r="BY7" s="155"/>
+      <c r="BQ7" s="161"/>
+      <c r="BR7" s="161"/>
+      <c r="BS7" s="161"/>
+      <c r="BT7" s="161"/>
+      <c r="BU7" s="161"/>
+      <c r="BV7" s="161"/>
+      <c r="BW7" s="161"/>
+      <c r="BX7" s="161"/>
+      <c r="BY7" s="161"/>
     </row>
     <row r="8" spans="1:77 16384:16384" ht="42" customHeight="1">
       <c r="A8" s="10" t="s">
@@ -10027,7 +10026,7 @@
       <c r="B8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="162" t="s">
+      <c r="C8" s="158" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="33" t="s">
@@ -12764,7 +12763,7 @@
       <c r="C43" s="17"/>
       <c r="D43" s="115"/>
       <c r="E43" s="43"/>
-      <c r="F43" s="143">
+      <c r="F43" s="140">
         <v>0.5</v>
       </c>
       <c r="H43" s="95"/>
@@ -13338,18 +13337,18 @@
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
       <c r="M5" s="39"/>
-      <c r="O5" s="153" t="s">
+      <c r="O5" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="154">
+      <c r="P5" s="159"/>
+      <c r="Q5" s="159"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="159"/>
+      <c r="U5" s="160">
         <v>13</v>
       </c>
-      <c r="V5" s="154"/>
+      <c r="V5" s="160"/>
     </row>
     <row r="6" spans="1:63" ht="30" customHeight="1">
       <c r="A6" s="10"/>
@@ -20178,23 +20177,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20498,22 +20486,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{115E488A-90BD-4FEC-9F20-FFAF098D38E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8EE784-10F3-46EF-B6DC-D206373B3A17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20540,9 +20535,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF8EE784-10F3-46EF-B6DC-D206373B3A17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{115E488A-90BD-4FEC-9F20-FFAF098D38E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
